--- a/data/trans_orig/P13_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7793</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3630</v>
+        <v>3499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14947</v>
+        <v>15052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02854649052682958</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01329601637936153</v>
+        <v>0.0128179980053502</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05474781515766486</v>
+        <v>0.05513370964996166</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>8684</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4192</v>
+        <v>4120</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16715</v>
+        <v>16312</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03329340058410612</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01607263047583624</v>
+        <v>0.01579590237335041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06408280578322104</v>
+        <v>0.06253551586793578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -786,19 +786,19 @@
         <v>16478</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10453</v>
+        <v>9418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26413</v>
+        <v>25501</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03086583027527245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01957961987273154</v>
+        <v>0.01764196392750803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04947703880500722</v>
+        <v>0.04776911879765922</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>265217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258063</v>
+        <v>257958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269380</v>
+        <v>269511</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9714535094731704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9452521848423352</v>
+        <v>0.9448662903500384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9867039836206385</v>
+        <v>0.9871820019946498</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -836,19 +836,19 @@
         <v>252154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>244123</v>
+        <v>244526</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256646</v>
+        <v>256718</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9667065994158939</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9359171942167788</v>
+        <v>0.9374644841320642</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9839273695241637</v>
+        <v>0.9842040976266495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>500</v>
@@ -857,19 +857,19 @@
         <v>517370</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>507435</v>
+        <v>508347</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>523395</v>
+        <v>524430</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9691341697247275</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9505229611949928</v>
+        <v>0.9522308812023408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9804203801272685</v>
+        <v>0.9823580360724919</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>22779</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15404</v>
+        <v>13854</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35009</v>
+        <v>35179</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04619745462936697</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03124144841699977</v>
+        <v>0.02809812426173538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0710018040033894</v>
+        <v>0.0713469813918223</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -982,19 +982,19 @@
         <v>32865</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23498</v>
+        <v>22770</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45803</v>
+        <v>46588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06521472759415824</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04662773866799775</v>
+        <v>0.04518381120368847</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09088875338449215</v>
+        <v>0.09244493270925459</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -1003,19 +1003,19 @@
         <v>55644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42766</v>
+        <v>42486</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71904</v>
+        <v>72664</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05580979616148059</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0428939774377789</v>
+        <v>0.04261301662257351</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07211857556492492</v>
+        <v>0.07288080862691075</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>470296</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458066</v>
+        <v>457896</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>477671</v>
+        <v>479221</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.953802545370633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9289981959966105</v>
+        <v>0.9286530186081778</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9687585515830002</v>
+        <v>0.9719018757382646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>467</v>
@@ -1053,19 +1053,19 @@
         <v>471084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458146</v>
+        <v>457361</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>480451</v>
+        <v>481179</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9347852724058417</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9091112466155082</v>
+        <v>0.907555067290746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9533722613320025</v>
+        <v>0.9548161887963116</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>912</v>
@@ -1074,19 +1074,19 @@
         <v>941380</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>925120</v>
+        <v>924360</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>954258</v>
+        <v>954538</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9441902038385194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.927881424435075</v>
+        <v>0.9271191913730897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.957106022562221</v>
+        <v>0.9573869833774266</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3696</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10296</v>
+        <v>10676</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01159082445587154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002966274212604944</v>
+        <v>0.002974937474387594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03229042637308821</v>
+        <v>0.03348177216165629</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>7274</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3255</v>
+        <v>3269</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13919</v>
+        <v>13973</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02168737643295726</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009704841540571479</v>
+        <v>0.009747253558870073</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04149842143123377</v>
+        <v>0.04165781792223902</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1220,19 +1220,19 @@
         <v>10970</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5364</v>
+        <v>5712</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19195</v>
+        <v>19295</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01676692495322702</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008198957942406923</v>
+        <v>0.008730263828878105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02933891334934078</v>
+        <v>0.02949118924712666</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>315150</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308550</v>
+        <v>308170</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317900</v>
+        <v>317897</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9884091755441284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9677095736269111</v>
+        <v>0.9665182278383416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997033725787395</v>
+        <v>0.9970250625256124</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>328</v>
@@ -1270,19 +1270,19 @@
         <v>328138</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321493</v>
+        <v>321439</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332157</v>
+        <v>332143</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9783126235670427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9585015785687669</v>
+        <v>0.9583421820777611</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9902951584594285</v>
+        <v>0.9902527464411299</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>635</v>
@@ -1291,19 +1291,19 @@
         <v>643288</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635063</v>
+        <v>634963</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648894</v>
+        <v>648546</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9832330750467729</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9706610866506591</v>
+        <v>0.9705088107528733</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9918010420575928</v>
+        <v>0.9912697361711218</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>4578</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11302</v>
+        <v>11717</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01276321985164186</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003132092397421474</v>
+        <v>0.003078799320610286</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0315117168240372</v>
+        <v>0.03266782264735925</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1416,19 +1416,19 @@
         <v>9149</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4038</v>
+        <v>4209</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15995</v>
+        <v>16807</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0246312528539103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01087116177652328</v>
+        <v>0.01133102612641971</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04306078797625879</v>
+        <v>0.04524685339413186</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1437,19 +1437,19 @@
         <v>13727</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7746</v>
+        <v>7575</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23088</v>
+        <v>22867</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01880114364681344</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01060914224963555</v>
+        <v>0.01037556097504596</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03162184202129708</v>
+        <v>0.03131893896175136</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>354093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>347369</v>
+        <v>346954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357548</v>
+        <v>357567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9872367801483581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9684882831759618</v>
+        <v>0.9673321773526408</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9968679076025785</v>
+        <v>0.9969212006793897</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>375</v>
@@ -1487,19 +1487,19 @@
         <v>362307</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>355461</v>
+        <v>354649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367418</v>
+        <v>367247</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9753687471460897</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9569392120237405</v>
+        <v>0.9547531466058682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9891288382234766</v>
+        <v>0.9886689738735803</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>733</v>
@@ -1508,19 +1508,19 @@
         <v>716400</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>707039</v>
+        <v>707260</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>722381</v>
+        <v>722552</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9811988563531866</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.968378157978703</v>
+        <v>0.9686810610382487</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9893908577503645</v>
+        <v>0.9896244390249542</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>5409</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1822</v>
+        <v>1874</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10798</v>
+        <v>10948</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.026604223175246</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008962866866568034</v>
+        <v>0.009219810488166969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05311316375803807</v>
+        <v>0.05384872223683126</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1633,19 +1633,19 @@
         <v>13651</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7901</v>
+        <v>8246</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22207</v>
+        <v>22002</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06573533830752942</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0380446157571015</v>
+        <v>0.03970786605764508</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1069360094752761</v>
+        <v>0.1059495855961579</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1654,19 +1654,19 @@
         <v>19060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11658</v>
+        <v>11694</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28697</v>
+        <v>28321</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04637734741551929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02836596311798419</v>
+        <v>0.028454820731261</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06982606451315015</v>
+        <v>0.06891208931326193</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>197899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192510</v>
+        <v>192360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201486</v>
+        <v>201434</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.973395776824754</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9468868362419617</v>
+        <v>0.9461512777631684</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.991037133133432</v>
+        <v>0.9907801895118331</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>185</v>
@@ -1704,19 +1704,19 @@
         <v>194017</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185461</v>
+        <v>185666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199767</v>
+        <v>199422</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9342646616924706</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8930639905247237</v>
+        <v>0.8940504144038426</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9619553842428985</v>
+        <v>0.960292133942355</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>385</v>
@@ -1725,19 +1725,19 @@
         <v>391916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382279</v>
+        <v>382655</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>399318</v>
+        <v>399282</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9536226525844808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9301739354868483</v>
+        <v>0.931087910686738</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9716340368820157</v>
+        <v>0.9715451792687386</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>5322</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2057</v>
+        <v>2082</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11716</v>
+        <v>11837</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01913528618324361</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007395110407026991</v>
+        <v>0.00748433458486739</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04212229485809848</v>
+        <v>0.0425580509378163</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1863,19 +1863,19 @@
         <v>5322</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2106</v>
+        <v>1990</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11906</v>
+        <v>11775</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009695448627654965</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003835488703272506</v>
+        <v>0.003624339653895819</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02168925323620696</v>
+        <v>0.02145061006571199</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>272822</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266428</v>
+        <v>266307</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>276087</v>
+        <v>276062</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9808647138167564</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9578777051419014</v>
+        <v>0.9574419490621831</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.992604889592973</v>
+        <v>0.9925156654151326</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>531</v>
@@ -1926,19 +1926,19 @@
         <v>543633</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>537049</v>
+        <v>537180</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>546849</v>
+        <v>546965</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9903045513723451</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9783107467637929</v>
+        <v>0.978549389934288</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9961645112967275</v>
+        <v>0.9963756603461041</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>27278</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18858</v>
+        <v>18608</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41157</v>
+        <v>40137</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04435288951366003</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03066214475594152</v>
+        <v>0.03025619534614953</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06691964417050321</v>
+        <v>0.06526091925692218</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -2051,19 +2051,19 @@
         <v>41300</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29070</v>
+        <v>28963</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55432</v>
+        <v>55403</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06471168305060837</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04554934136892074</v>
+        <v>0.04538048561134118</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08685396265304514</v>
+        <v>0.08680857108450646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -2072,19 +2072,19 @@
         <v>68578</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54796</v>
+        <v>54303</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86408</v>
+        <v>86213</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05472066183856915</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04372308479263712</v>
+        <v>0.04332988344513896</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06894738066712523</v>
+        <v>0.06879157126468294</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>587749</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>573870</v>
+        <v>574890</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>596169</v>
+        <v>596419</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.95564711048634</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9330803558294968</v>
+        <v>0.9347390807430779</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9693378552440585</v>
+        <v>0.9697438046538505</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>581</v>
@@ -2122,19 +2122,19 @@
         <v>596919</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>582787</v>
+        <v>582816</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>609149</v>
+        <v>609256</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9352883169493916</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9131460373469543</v>
+        <v>0.9131914289154925</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9544506586310787</v>
+        <v>0.9546195143886583</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1153</v>
@@ -2143,19 +2143,19 @@
         <v>1184668</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1166838</v>
+        <v>1167033</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1198450</v>
+        <v>1198943</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9452793381614308</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9310526193328743</v>
+        <v>0.9312084287353168</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9562769152073628</v>
+        <v>0.956670116554861</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>32878</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23123</v>
+        <v>22845</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45385</v>
+        <v>44535</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04420307797362702</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03108785279028561</v>
+        <v>0.03071357484334362</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06101797101538971</v>
+        <v>0.05987533278082326</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -2268,19 +2268,19 @@
         <v>45646</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33311</v>
+        <v>33537</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60054</v>
+        <v>59884</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0582585540372464</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04251541553681052</v>
+        <v>0.04280286125757088</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07664687164049852</v>
+        <v>0.07643008215851992</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -2289,19 +2289,19 @@
         <v>78524</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62562</v>
+        <v>62217</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>97289</v>
+        <v>96426</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05141356480748253</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0409624287519587</v>
+        <v>0.04073639501072684</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06369998400167103</v>
+        <v>0.06313482705214948</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>710917</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>698410</v>
+        <v>699260</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>720672</v>
+        <v>720950</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.955796922026373</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9389820289846107</v>
+        <v>0.9401246672191766</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9689121472097147</v>
+        <v>0.9692864251566564</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>703</v>
@@ -2339,19 +2339,19 @@
         <v>737865</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>723457</v>
+        <v>723627</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>750200</v>
+        <v>749974</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9417414459627536</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9233531283595018</v>
+        <v>0.9235699178414802</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9574845844631896</v>
+        <v>0.9571971387424292</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1406</v>
@@ -2360,19 +2360,19 @@
         <v>1448782</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1430017</v>
+        <v>1430880</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1464744</v>
+        <v>1465089</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9485864351925175</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.936300015998329</v>
+        <v>0.9368651729478505</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9590375712480413</v>
+        <v>0.9592636049892731</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>104411</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>85815</v>
+        <v>84326</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>125707</v>
+        <v>127068</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03186616967076493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02619086527189032</v>
+        <v>0.02573628406722594</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0383658583692621</v>
+        <v>0.03878117757131101</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>156</v>
@@ -2485,19 +2485,19 @@
         <v>163893</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>141773</v>
+        <v>143395</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>192575</v>
+        <v>194395</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04850047052032394</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04195459116959203</v>
+        <v>0.0424346079365164</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05698838388880054</v>
+        <v>0.05752694927323557</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>256</v>
@@ -2506,19 +2506,19 @@
         <v>268304</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>236502</v>
+        <v>234229</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>302912</v>
+        <v>304141</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04031159862993554</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03553359574388249</v>
+        <v>0.03519206647901196</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04551139818993366</v>
+        <v>0.0456959943105485</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>3172132</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3150836</v>
+        <v>3149475</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3190728</v>
+        <v>3192217</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9681338303292351</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9616341416307379</v>
+        <v>0.9612188224286891</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9738091347281097</v>
+        <v>0.9742637159327741</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3141</v>
@@ -2556,19 +2556,19 @@
         <v>3215304</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3186622</v>
+        <v>3184802</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3237424</v>
+        <v>3235802</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9514995294796761</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9430116161111994</v>
+        <v>0.9424730507267643</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9580454088304079</v>
+        <v>0.9575653920634836</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6255</v>
@@ -2577,19 +2577,19 @@
         <v>6387437</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6352829</v>
+        <v>6351600</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6419239</v>
+        <v>6421512</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9596884013700645</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9544886018100666</v>
+        <v>0.9543040056894516</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9644664042561176</v>
+        <v>0.9648079335209883</v>
       </c>
     </row>
     <row r="30">
@@ -2925,19 +2925,19 @@
         <v>15207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9235</v>
+        <v>9510</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23634</v>
+        <v>24629</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05159375297368213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03133299652829762</v>
+        <v>0.03226662656315316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08018766886491399</v>
+        <v>0.08356084652418072</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -2946,19 +2946,19 @@
         <v>53072</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39915</v>
+        <v>39416</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66984</v>
+        <v>68989</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1847614025671585</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.138957648525711</v>
+        <v>0.1372216533562054</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2331942317868254</v>
+        <v>0.2401753199066821</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -2967,19 +2967,19 @@
         <v>68278</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53279</v>
+        <v>53112</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85545</v>
+        <v>85732</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1173203111462436</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09154674746478798</v>
+        <v>0.09126022901871365</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.146989168706353</v>
+        <v>0.1473106123376933</v>
       </c>
     </row>
     <row r="5">
@@ -2996,19 +2996,19 @@
         <v>279531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>271104</v>
+        <v>270109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285503</v>
+        <v>285228</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9484062470263178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.919812331135086</v>
+        <v>0.9164391534758191</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9686670034717024</v>
+        <v>0.9677333734368467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -3017,19 +3017,19 @@
         <v>234173</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>220261</v>
+        <v>218256</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247330</v>
+        <v>247829</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8152385974328415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.766805768213175</v>
+        <v>0.7598246800933179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8610423514742891</v>
+        <v>0.8627783466437948</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>474</v>
@@ -3038,19 +3038,19 @@
         <v>513705</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>496438</v>
+        <v>496251</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>528704</v>
+        <v>528871</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8826796888537564</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8530108312936469</v>
+        <v>0.8526893876623068</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9084532525352119</v>
+        <v>0.9087397709812863</v>
       </c>
     </row>
     <row r="6">
@@ -3142,19 +3142,19 @@
         <v>22813</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14603</v>
+        <v>14230</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36012</v>
+        <v>34899</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04521220286256974</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02894136411669574</v>
+        <v>0.02820199436202601</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0713694831356909</v>
+        <v>0.06916441660629424</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -3163,19 +3163,19 @@
         <v>57290</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43453</v>
+        <v>43249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72949</v>
+        <v>72274</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1093802566751829</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08296207875933635</v>
+        <v>0.08257343968035037</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1392780227650279</v>
+        <v>0.1379887547389244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -3184,19 +3184,19 @@
         <v>80103</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63927</v>
+        <v>61755</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100564</v>
+        <v>99909</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07789478481714543</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06216524980703407</v>
+        <v>0.06005282914385648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09779208541239304</v>
+        <v>0.09715550278004303</v>
       </c>
     </row>
     <row r="8">
@@ -3213,19 +3213,19 @@
         <v>481767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468568</v>
+        <v>469681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489977</v>
+        <v>490350</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9547877971374302</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9286305168643089</v>
+        <v>0.9308355833937058</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9710586358833042</v>
+        <v>0.971798005637974</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>429</v>
@@ -3234,19 +3234,19 @@
         <v>466475</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>450816</v>
+        <v>451491</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>480312</v>
+        <v>480516</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8906197433248171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8607219772349721</v>
+        <v>0.8620112452610756</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9170379212406639</v>
+        <v>0.9174265603196496</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>880</v>
@@ -3255,19 +3255,19 @@
         <v>948242</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>927781</v>
+        <v>928436</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>964418</v>
+        <v>966590</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9221052151828546</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.902207914587607</v>
+        <v>0.9028444972199573</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9378347501929659</v>
+        <v>0.9399471708561435</v>
       </c>
     </row>
     <row r="9">
@@ -3359,19 +3359,19 @@
         <v>8870</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3891</v>
+        <v>4051</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16995</v>
+        <v>17570</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02737187160056733</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01200886722001122</v>
+        <v>0.012500591112891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05244640461612485</v>
+        <v>0.05421979197113411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -3380,19 +3380,19 @@
         <v>22030</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13820</v>
+        <v>14059</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32289</v>
+        <v>32551</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06460068122374601</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04052686420283475</v>
+        <v>0.04122598982916872</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09468499696695133</v>
+        <v>0.09545286829007084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -3401,19 +3401,19 @@
         <v>30900</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21266</v>
+        <v>20471</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42567</v>
+        <v>43724</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04646135864524129</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03197646451603119</v>
+        <v>0.03078049940336773</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06400454328266064</v>
+        <v>0.06574365314125569</v>
       </c>
     </row>
     <row r="11">
@@ -3430,19 +3430,19 @@
         <v>315176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307051</v>
+        <v>306476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320155</v>
+        <v>319995</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9726281283994327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9475535953838753</v>
+        <v>0.9457802080288659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9879911327799888</v>
+        <v>0.987499408887109</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>296</v>
@@ -3451,19 +3451,19 @@
         <v>318990</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308731</v>
+        <v>308469</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>327200</v>
+        <v>326961</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9353993187762539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9053150030330487</v>
+        <v>0.9045471317099293</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9594731357971652</v>
+        <v>0.9587740101708314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>607</v>
@@ -3472,19 +3472,19 @@
         <v>634166</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>622499</v>
+        <v>621342</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643800</v>
+        <v>644595</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9535386413547587</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9359954567173392</v>
+        <v>0.9342563468587441</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9680235354839685</v>
+        <v>0.9692195005966323</v>
       </c>
     </row>
     <row r="12">
@@ -3576,19 +3576,19 @@
         <v>9404</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4376</v>
+        <v>4489</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17430</v>
+        <v>16041</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02521030125025866</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01173226183991215</v>
+        <v>0.01203489007691828</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04672632602501338</v>
+        <v>0.04300209337878353</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -3597,19 +3597,19 @@
         <v>35368</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25219</v>
+        <v>24650</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47266</v>
+        <v>47926</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09139144546937913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06516668928790018</v>
+        <v>0.06369533566192613</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1221350425378881</v>
+        <v>0.1238397985489644</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3618,19 +3618,19 @@
         <v>44772</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32366</v>
+        <v>32491</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58626</v>
+        <v>59212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05890954624929352</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04258546297542836</v>
+        <v>0.04275078090016746</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07713789904431147</v>
+        <v>0.07790903360376782</v>
       </c>
     </row>
     <row r="14">
@@ -3647,19 +3647,19 @@
         <v>363613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>355587</v>
+        <v>356976</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368641</v>
+        <v>368528</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9747896987497413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9532736739749865</v>
+        <v>0.9569979066212166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9882677381600878</v>
+        <v>0.9879651099230823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -3668,19 +3668,19 @@
         <v>351629</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>339731</v>
+        <v>339071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>361778</v>
+        <v>362347</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9086085545306208</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8778649574621119</v>
+        <v>0.8761602014510357</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9348333107120999</v>
+        <v>0.9363046643380738</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>668</v>
@@ -3689,19 +3689,19 @@
         <v>715241</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>701387</v>
+        <v>700801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>727647</v>
+        <v>727522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9410904537507064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9228621009556885</v>
+        <v>0.9220909663962322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9574145370245715</v>
+        <v>0.9572492190998324</v>
       </c>
     </row>
     <row r="15">
@@ -3793,19 +3793,19 @@
         <v>6294</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2594</v>
+        <v>2229</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13701</v>
+        <v>13825</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02960200196194097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01220238943863932</v>
+        <v>0.01048451636562062</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06443845810295101</v>
+        <v>0.06502357905943201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -3814,19 +3814,19 @@
         <v>24972</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16329</v>
+        <v>16460</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36306</v>
+        <v>35218</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1137188294450474</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07435999116592613</v>
+        <v>0.07495726009443704</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1653332249445952</v>
+        <v>0.1603821629845467</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -3835,19 +3835,19 @@
         <v>31266</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21342</v>
+        <v>21321</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42589</v>
+        <v>43735</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07233895695702684</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04937950080944239</v>
+        <v>0.04932969492922325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09853702568979555</v>
+        <v>0.1011885468635265</v>
       </c>
     </row>
     <row r="17">
@@ -3864,19 +3864,19 @@
         <v>206324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198917</v>
+        <v>198793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210024</v>
+        <v>210389</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.970397998038059</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.935561541897049</v>
+        <v>0.9349764209405681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9877976105613576</v>
+        <v>0.9895154836343795</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>188</v>
@@ -3885,19 +3885,19 @@
         <v>194619</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183285</v>
+        <v>184373</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>203262</v>
+        <v>203131</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8862811705549526</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8346667750554048</v>
+        <v>0.8396178370154531</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9256400088340738</v>
+        <v>0.9250427399055626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>378</v>
@@ -3906,19 +3906,19 @@
         <v>400943</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>389620</v>
+        <v>388474</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>410867</v>
+        <v>410888</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9276610430429731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9014629743102042</v>
+        <v>0.8988114531364733</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9506204991905575</v>
+        <v>0.9506703050707768</v>
       </c>
     </row>
     <row r="18">
@@ -4010,19 +4010,19 @@
         <v>12429</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6275</v>
+        <v>7139</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20123</v>
+        <v>20356</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0453653833243596</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02290246488995004</v>
+        <v>0.0260565608511352</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07344644332294889</v>
+        <v>0.07429802176059322</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -4031,19 +4031,19 @@
         <v>17522</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10509</v>
+        <v>10460</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27917</v>
+        <v>27149</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06257011306175875</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03752777011143924</v>
+        <v>0.03735247145935745</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09969190262146951</v>
+        <v>0.09695049727448826</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -4052,19 +4052,19 @@
         <v>29951</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20698</v>
+        <v>20678</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42313</v>
+        <v>42182</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05406168886607562</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03736098492349402</v>
+        <v>0.03732408097939034</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0763762196960773</v>
+        <v>0.07613954511438112</v>
       </c>
     </row>
     <row r="20">
@@ -4081,19 +4081,19 @@
         <v>261552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253858</v>
+        <v>253625</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267706</v>
+        <v>266842</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9546346166756404</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9265535566770513</v>
+        <v>0.9257019782394075</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9770975351100499</v>
+        <v>0.9739434391488647</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -4102,19 +4102,19 @@
         <v>262509</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252114</v>
+        <v>252882</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>269522</v>
+        <v>269571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9374298869382413</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9003080973785307</v>
+        <v>0.9030495027255118</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9624722298885608</v>
+        <v>0.9626475285406427</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>501</v>
@@ -4123,19 +4123,19 @@
         <v>524061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>511699</v>
+        <v>511830</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533314</v>
+        <v>533334</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9459383111339243</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9236237803039228</v>
+        <v>0.9238604548856189</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9626390150765061</v>
+        <v>0.9626759190206097</v>
       </c>
     </row>
     <row r="21">
@@ -4227,19 +4227,19 @@
         <v>14601</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8172</v>
+        <v>8067</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24815</v>
+        <v>25100</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02202895710064131</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01232937252000185</v>
+        <v>0.01217107171121296</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03744040760936495</v>
+        <v>0.03787105638722536</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -4248,19 +4248,19 @@
         <v>37021</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26461</v>
+        <v>26518</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>52434</v>
+        <v>51666</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05343985330362355</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03819609234292864</v>
+        <v>0.03827876964891423</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07568863425006478</v>
+        <v>0.07457981015021789</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -4269,19 +4269,19 @@
         <v>51621</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37467</v>
+        <v>38078</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68464</v>
+        <v>67823</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03808160789972374</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0276399082032663</v>
+        <v>0.02809052456536506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05050633062433864</v>
+        <v>0.05003354835480831</v>
       </c>
     </row>
     <row r="23">
@@ -4298,19 +4298,19 @@
         <v>648187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>637973</v>
+        <v>637688</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>654616</v>
+        <v>654721</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9779710428993587</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9625595923906354</v>
+        <v>0.9621289436127751</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9876706274799981</v>
+        <v>0.9878289282887874</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>603</v>
@@ -4319,19 +4319,19 @@
         <v>655734</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>640321</v>
+        <v>641089</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>666294</v>
+        <v>666237</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9465601466963764</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9243113657499356</v>
+        <v>0.9254201898497821</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9618039076570714</v>
+        <v>0.9617212303510858</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1208</v>
@@ -4340,19 +4340,19 @@
         <v>1303922</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1287079</v>
+        <v>1287720</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1318076</v>
+        <v>1317465</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9619183921002763</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9494936693756614</v>
+        <v>0.9499664516451917</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9723600917967337</v>
+        <v>0.971909475434635</v>
       </c>
     </row>
     <row r="24">
@@ -4444,19 +4444,19 @@
         <v>69323</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53222</v>
+        <v>54186</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88057</v>
+        <v>86846</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08909690959476549</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06840302937131877</v>
+        <v>0.06964186871892035</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1131733229381902</v>
+        <v>0.1116174980479428</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>78</v>
@@ -4465,19 +4465,19 @@
         <v>84287</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67063</v>
+        <v>67619</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>102313</v>
+        <v>101518</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1023080044175145</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08140219686905498</v>
+        <v>0.08207598517348312</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1241884356547815</v>
+        <v>0.1232234594708982</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>140</v>
@@ -4486,19 +4486,19 @@
         <v>153610</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>132404</v>
+        <v>131723</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>181717</v>
+        <v>182453</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0958912526093194</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08265301489342979</v>
+        <v>0.08222812820871959</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1134369055560636</v>
+        <v>0.1138965558202345</v>
       </c>
     </row>
     <row r="26">
@@ -4515,19 +4515,19 @@
         <v>708745</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>690011</v>
+        <v>691222</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>724846</v>
+        <v>723882</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9109030904052345</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8868266770618101</v>
+        <v>0.8883825019520573</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9315969706286812</v>
+        <v>0.9303581312810798</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>679</v>
@@ -4536,19 +4536,19 @@
         <v>739566</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>721540</v>
+        <v>722335</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>756790</v>
+        <v>756234</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8976919955824856</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8758115643452183</v>
+        <v>0.8767765405291018</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.918597803130945</v>
+        <v>0.9179240148265169</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1333</v>
@@ -4557,19 +4557,19 @@
         <v>1448311</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1420204</v>
+        <v>1419468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1469517</v>
+        <v>1470198</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9041087473906806</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8865630944439366</v>
+        <v>0.8861034441797655</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9173469851065703</v>
+        <v>0.9177718717912804</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>158941</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>134785</v>
+        <v>134242</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>187089</v>
+        <v>185432</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04642178586886556</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03936657586934775</v>
+        <v>0.03920802502659371</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05464296265538473</v>
+        <v>0.05415908791128235</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>306</v>
@@ -4682,19 +4682,19 @@
         <v>331560</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>298131</v>
+        <v>297330</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>370756</v>
+        <v>369083</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09325918014893159</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08385643015087663</v>
+        <v>0.08363102939344508</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1042838633596499</v>
+        <v>0.1038134439550011</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>452</v>
@@ -4703,19 +4703,19 @@
         <v>490501</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>448297</v>
+        <v>446950</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>541002</v>
+        <v>536990</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07028147173918139</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06423428006184508</v>
+        <v>0.06404127612497502</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07751756224071726</v>
+        <v>0.07694262922515806</v>
       </c>
     </row>
     <row r="29">
@@ -4732,19 +4732,19 @@
         <v>3264895</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3236747</v>
+        <v>3238404</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3289051</v>
+        <v>3289594</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9535782141311344</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9453570373446151</v>
+        <v>0.9458409120887171</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9606334241306522</v>
+        <v>0.9607919749734062</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2989</v>
@@ -4753,19 +4753,19 @@
         <v>3223697</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3184501</v>
+        <v>3186174</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3257126</v>
+        <v>3257927</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9067408198510685</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8957161366403501</v>
+        <v>0.8961865560449989</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9161435698491233</v>
+        <v>0.9163689706065549</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6049</v>
@@ -4774,19 +4774,19 @@
         <v>6488592</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6438091</v>
+        <v>6442103</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6530796</v>
+        <v>6532143</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9297185282608186</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9224824377592827</v>
+        <v>0.9230573707748422</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9357657199381549</v>
+        <v>0.9359587238750251</v>
       </c>
     </row>
     <row r="30">
@@ -5122,19 +5122,19 @@
         <v>16429</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9875</v>
+        <v>10030</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27273</v>
+        <v>25848</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05592530855684544</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03361647733199449</v>
+        <v>0.03414503382388748</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09284170349626385</v>
+        <v>0.08799043374856975</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -5143,19 +5143,19 @@
         <v>28502</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18893</v>
+        <v>19440</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41676</v>
+        <v>40468</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09872588179531604</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06544248520625102</v>
+        <v>0.06733526736308672</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1443548390369422</v>
+        <v>0.140170465087196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -5164,19 +5164,19 @@
         <v>44931</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32639</v>
+        <v>32885</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61904</v>
+        <v>59387</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07713975936401797</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0560357818629528</v>
+        <v>0.05645782984597043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1062802913595859</v>
+        <v>0.1019574126568509</v>
       </c>
     </row>
     <row r="5">
@@ -5193,19 +5193,19 @@
         <v>277332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266488</v>
+        <v>267913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283886</v>
+        <v>283731</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9440746914431546</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9071582965037363</v>
+        <v>0.9120095662514304</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9663835226680055</v>
+        <v>0.9658549661761126</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>251</v>
@@ -5214,19 +5214,19 @@
         <v>260201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247027</v>
+        <v>248235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269810</v>
+        <v>269263</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9012741182046839</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8556451609630575</v>
+        <v>0.8598295349128039</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9345575147937489</v>
+        <v>0.932664732636913</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>501</v>
@@ -5235,19 +5235,19 @@
         <v>537533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>520560</v>
+        <v>523077</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>549825</v>
+        <v>549579</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.922860240635982</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8937197086404141</v>
+        <v>0.8980425873431489</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9439642181370472</v>
+        <v>0.9435421701540295</v>
       </c>
     </row>
     <row r="6">
@@ -5339,19 +5339,19 @@
         <v>11941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6101</v>
+        <v>5995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20696</v>
+        <v>20836</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02376017792167845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0121386055100213</v>
+        <v>0.01192762801586494</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04118004139274577</v>
+        <v>0.04145847447486205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -5360,19 +5360,19 @@
         <v>19183</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11072</v>
+        <v>12025</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30288</v>
+        <v>29743</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03667196290585215</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02116630890517813</v>
+        <v>0.02298914206419607</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05790208089658239</v>
+        <v>0.05686156864345304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -5381,19 +5381,19 @@
         <v>31124</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21404</v>
+        <v>20671</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45072</v>
+        <v>42945</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03034515963190209</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02086882280593528</v>
+        <v>0.02015414939550777</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04394482114647815</v>
+        <v>0.0418711121079714</v>
       </c>
     </row>
     <row r="8">
@@ -5410,19 +5410,19 @@
         <v>490634</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>481879</v>
+        <v>481739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>496474</v>
+        <v>496580</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9762398220783216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9588199586072543</v>
+        <v>0.9585415255251387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9878613944899788</v>
+        <v>0.9880723719841351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>467</v>
@@ -5431,19 +5431,19 @@
         <v>503901</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>492796</v>
+        <v>493341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>512012</v>
+        <v>511059</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9633280370941478</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9420979191034177</v>
+        <v>0.943138431356547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.978833691094822</v>
+        <v>0.9770108579358039</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>931</v>
@@ -5452,19 +5452,19 @@
         <v>994535</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>980587</v>
+        <v>982714</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1004255</v>
+        <v>1004988</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9696548403680979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9560551788535218</v>
+        <v>0.9581288878920285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9791311771940647</v>
+        <v>0.9798458506044923</v>
       </c>
     </row>
     <row r="9">
@@ -5556,19 +5556,19 @@
         <v>4559</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1564</v>
+        <v>1611</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10709</v>
+        <v>10060</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01430991033361721</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004908881090271129</v>
+        <v>0.005057564438637017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03361709955625061</v>
+        <v>0.03158062597293186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7361</v>
+        <v>7496</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006363916817944052</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02194150424009577</v>
+        <v>0.02234399629423068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -5598,19 +5598,19 @@
         <v>6694</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2748</v>
+        <v>2925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13594</v>
+        <v>13477</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0102342572066168</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004201309944557184</v>
+        <v>0.004472568957512846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02078573971538733</v>
+        <v>0.02060612784235642</v>
       </c>
     </row>
     <row r="11">
@@ -5627,19 +5627,19 @@
         <v>314006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307856</v>
+        <v>308505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317001</v>
+        <v>316954</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9856900896663828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9663829004437489</v>
+        <v>0.9684193740270688</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9950911189097288</v>
+        <v>0.9949424355613631</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -5648,7 +5648,7 @@
         <v>333329</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328103</v>
+        <v>327968</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>335464</v>
@@ -5657,7 +5657,7 @@
         <v>0.993636083182056</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9780584957599044</v>
+        <v>0.9776560037057695</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5669,19 +5669,19 @@
         <v>647335</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640435</v>
+        <v>640552</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651281</v>
+        <v>651104</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9897657427933833</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9792142602846127</v>
+        <v>0.9793938721576436</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.995798690055443</v>
+        <v>0.9955274310424872</v>
       </c>
     </row>
     <row r="12">
@@ -5773,19 +5773,19 @@
         <v>16604</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9065</v>
+        <v>9770</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26030</v>
+        <v>25447</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04499952197760666</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02456678592744662</v>
+        <v>0.02647774042534911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07054282372641001</v>
+        <v>0.0689649875395959</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5794,19 +5794,19 @@
         <v>27740</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18650</v>
+        <v>19254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37643</v>
+        <v>39596</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07162648761608874</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0481559153447703</v>
+        <v>0.04971461388977814</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0971978427039968</v>
+        <v>0.1022414961847459</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -5815,19 +5815,19 @@
         <v>44344</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32388</v>
+        <v>32699</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59982</v>
+        <v>59791</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05863501250260404</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04282622770395055</v>
+        <v>0.04323681525609669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07931189160072689</v>
+        <v>0.07905955833572519</v>
       </c>
     </row>
     <row r="14">
@@ -5844,19 +5844,19 @@
         <v>352387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342961</v>
+        <v>343544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359926</v>
+        <v>359221</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9550004780223933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9294571762735898</v>
+        <v>0.9310350124604042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9754332140725533</v>
+        <v>0.9735222595746509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>333</v>
@@ -5865,19 +5865,19 @@
         <v>359543</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>349640</v>
+        <v>347687</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368633</v>
+        <v>368029</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9283735123839113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9028021572960033</v>
+        <v>0.8977585038152543</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9518440846552297</v>
+        <v>0.950285386110222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>669</v>
@@ -5886,19 +5886,19 @@
         <v>711930</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>696292</v>
+        <v>696483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>723886</v>
+        <v>723575</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9413649874973959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9206881083992746</v>
+        <v>0.9209404416642745</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9571737722960495</v>
+        <v>0.9567631847439032</v>
       </c>
     </row>
     <row r="15">
@@ -5990,19 +5990,19 @@
         <v>7954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3137</v>
+        <v>3932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14089</v>
+        <v>15687</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03765521360496013</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01485186990811093</v>
+        <v>0.01861477180530982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06670471580508656</v>
+        <v>0.07427002230430717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -6011,19 +6011,19 @@
         <v>15655</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9129</v>
+        <v>8759</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23994</v>
+        <v>24358</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07191004841968286</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04193403498407618</v>
+        <v>0.04023581100812284</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1102136991648162</v>
+        <v>0.1118893575370081</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -6032,19 +6032,19 @@
         <v>23608</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14733</v>
+        <v>15695</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34135</v>
+        <v>34499</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05504135256639885</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03434978319592585</v>
+        <v>0.03659127023456735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07958417707852297</v>
+        <v>0.08043286680375406</v>
       </c>
     </row>
     <row r="17">
@@ -6061,19 +6061,19 @@
         <v>203267</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197132</v>
+        <v>195534</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208084</v>
+        <v>207289</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9623447863950398</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9332952841949113</v>
+        <v>0.9257299776956953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9851481300918891</v>
+        <v>0.9813852281946903</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -6082,19 +6082,19 @@
         <v>202045</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193706</v>
+        <v>193342</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208571</v>
+        <v>208941</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9280899515803172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8897863008351851</v>
+        <v>0.8881106424629918</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9580659650159239</v>
+        <v>0.9597641889918771</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>411</v>
@@ -6103,19 +6103,19 @@
         <v>405313</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>394786</v>
+        <v>394422</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>414188</v>
+        <v>413226</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9449586474336011</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9204158229214771</v>
+        <v>0.9195671331962463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9656502168040743</v>
+        <v>0.9634087297654328</v>
       </c>
     </row>
     <row r="18">
@@ -6207,19 +6207,19 @@
         <v>10728</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5700</v>
+        <v>5604</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18497</v>
+        <v>18289</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04077302117168997</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02166148164971446</v>
+        <v>0.0212965202832274</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07029960566542436</v>
+        <v>0.0695072115039157</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -6228,19 +6228,19 @@
         <v>21622</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13308</v>
+        <v>12657</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33045</v>
+        <v>32285</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07916874723811532</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04872494684824844</v>
+        <v>0.04634215756946389</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1209944071800818</v>
+        <v>0.1182106627562652</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -6249,19 +6249,19 @@
         <v>32350</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22463</v>
+        <v>21938</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45746</v>
+        <v>45467</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06032860796123615</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04188916620719303</v>
+        <v>0.04091166567399426</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08530921945231165</v>
+        <v>0.08478856803884628</v>
       </c>
     </row>
     <row r="20">
@@ -6278,19 +6278,19 @@
         <v>252395</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244626</v>
+        <v>244834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257423</v>
+        <v>257519</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.95922697882831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9297003943345756</v>
+        <v>0.9304927884960847</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9783385183502853</v>
+        <v>0.9787034797167726</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>245</v>
@@ -6299,19 +6299,19 @@
         <v>251493</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240070</v>
+        <v>240830</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>259807</v>
+        <v>260458</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9208312527618847</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8790055928199181</v>
+        <v>0.8817893372437352</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9512750531517515</v>
+        <v>0.9536578424305361</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>493</v>
@@ -6320,19 +6320,19 @@
         <v>503888</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>490492</v>
+        <v>490771</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>513775</v>
+        <v>514300</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9396713920387638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9146907805476883</v>
+        <v>0.9152114319611536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9581108337928068</v>
+        <v>0.9590883343260057</v>
       </c>
     </row>
     <row r="21">
@@ -6424,19 +6424,19 @@
         <v>27162</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17878</v>
+        <v>18457</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39925</v>
+        <v>39868</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04136994026844486</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02723037335936426</v>
+        <v>0.0281115949819828</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06081015916116148</v>
+        <v>0.06072231202849176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -6445,19 +6445,19 @@
         <v>50998</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37086</v>
+        <v>38201</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66966</v>
+        <v>67196</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07390812103456224</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05374609428966833</v>
+        <v>0.05536190170887226</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09704929163743067</v>
+        <v>0.0973824673870646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -6466,19 +6466,19 @@
         <v>78160</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60679</v>
+        <v>60811</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98531</v>
+        <v>98043</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05804334648076266</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04506189170475203</v>
+        <v>0.04515968283532086</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07317146881040884</v>
+        <v>0.07280920460928766</v>
       </c>
     </row>
     <row r="23">
@@ -6495,19 +6495,19 @@
         <v>629396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>616633</v>
+        <v>616690</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638680</v>
+        <v>638101</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9586300597315551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9391898408388385</v>
+        <v>0.939277687971508</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9727696266406358</v>
+        <v>0.9718884050180168</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>601</v>
@@ -6516,19 +6516,19 @@
         <v>639025</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>623057</v>
+        <v>622827</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>652937</v>
+        <v>651822</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9260918789654378</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9029507083625687</v>
+        <v>0.9026175326129352</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9462539057103316</v>
+        <v>0.9446380982911277</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1158</v>
@@ -6537,19 +6537,19 @@
         <v>1268421</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1248050</v>
+        <v>1248538</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1285902</v>
+        <v>1285770</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9419566535192373</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9268285311895907</v>
+        <v>0.9271907953907124</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9549381082952479</v>
+        <v>0.9548403171646792</v>
       </c>
     </row>
     <row r="24">
@@ -6641,19 +6641,19 @@
         <v>22204</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14484</v>
+        <v>13830</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33062</v>
+        <v>32651</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02851888245265645</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01860267504071631</v>
+        <v>0.01776243236332337</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04246453815915058</v>
+        <v>0.04193651538375836</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -6662,19 +6662,19 @@
         <v>29845</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18936</v>
+        <v>20032</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43195</v>
+        <v>43468</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03621430944623251</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02297718465053096</v>
+        <v>0.02430724447833001</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0524128621444202</v>
+        <v>0.05274415072495297</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -6683,19 +6683,19 @@
         <v>52050</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38919</v>
+        <v>40017</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68200</v>
+        <v>69366</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03247594642622349</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02428325994519715</v>
+        <v>0.02496837182885264</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04255255939303363</v>
+        <v>0.04328035144398317</v>
       </c>
     </row>
     <row r="26">
@@ -6712,19 +6712,19 @@
         <v>756379</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>745521</v>
+        <v>745932</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764099</v>
+        <v>764753</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9714811175473436</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9575354618408495</v>
+        <v>0.9580634846162417</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9813973249592838</v>
+        <v>0.9822375676366767</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>728</v>
@@ -6733,19 +6733,19 @@
         <v>794287</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>780937</v>
+        <v>780664</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>805196</v>
+        <v>804100</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9637856905537675</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9475871378555802</v>
+        <v>0.9472558492750477</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9770228153494691</v>
+        <v>0.97569275552167</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1457</v>
@@ -6754,19 +6754,19 @@
         <v>1550665</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1534515</v>
+        <v>1533349</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1563796</v>
+        <v>1562698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9675240535737765</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9574474406069663</v>
+        <v>0.9567196485560168</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9757167400548027</v>
+        <v>0.9750316281711474</v>
       </c>
     </row>
     <row r="27">
@@ -6858,19 +6858,19 @@
         <v>117581</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>97723</v>
+        <v>96235</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>139322</v>
+        <v>138360</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03465013591691826</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02879824372799816</v>
+        <v>0.02835955402018472</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04105710951129424</v>
+        <v>0.04077339871287977</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>172</v>
@@ -6879,19 +6879,19 @@
         <v>195680</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>167286</v>
+        <v>168309</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>227223</v>
+        <v>227679</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0552846470732063</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04726268506121068</v>
+        <v>0.04755147765662992</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06419627403786637</v>
+        <v>0.06432513619196539</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>284</v>
@@ -6900,19 +6900,19 @@
         <v>313261</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>277821</v>
+        <v>278933</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>346795</v>
+        <v>349422</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04518485086007707</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04007295547795537</v>
+        <v>0.04023335958409779</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05002183748581523</v>
+        <v>0.05040070714477934</v>
       </c>
     </row>
     <row r="29">
@@ -6929,19 +6929,19 @@
         <v>3275797</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3254056</v>
+        <v>3255018</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3295655</v>
+        <v>3297143</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9653498640830818</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9589428904887058</v>
+        <v>0.9592266012871202</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9712017562720018</v>
+        <v>0.9716404459798154</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3161</v>
@@ -6950,19 +6950,19 @@
         <v>3343824</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3312281</v>
+        <v>3311825</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3372218</v>
+        <v>3371195</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9447153529267937</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9358037259621335</v>
+        <v>0.9356748638080346</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9527373149387888</v>
+        <v>0.9524485223433701</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6279</v>
@@ -6971,19 +6971,19 @@
         <v>6619620</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6586086</v>
+        <v>6583459</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6655060</v>
+        <v>6653948</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9548151491399229</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9499781625141844</v>
+        <v>0.9495992928552204</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9599270445220446</v>
+        <v>0.9597666404159021</v>
       </c>
     </row>
     <row r="30">
@@ -7319,19 +7319,19 @@
         <v>4116</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9723</v>
+        <v>10316</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01290899439294125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004298536629486249</v>
+        <v>0.004255994012428028</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03049542536852231</v>
+        <v>0.03235402028529745</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -7340,19 +7340,19 @@
         <v>3164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1021</v>
+        <v>1330</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6319</v>
+        <v>6567</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01000948252804806</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003231835648368845</v>
+        <v>0.004208625571992508</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01999192883717317</v>
+        <v>0.02077627217645929</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -7361,19 +7361,19 @@
         <v>7280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3874</v>
+        <v>3654</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13519</v>
+        <v>13489</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01146559695469049</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00610126796792751</v>
+        <v>0.005755082382833198</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02129216252194143</v>
+        <v>0.02124622949040608</v>
       </c>
     </row>
     <row r="5">
@@ -7390,19 +7390,19 @@
         <v>314729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>309122</v>
+        <v>308529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317474</v>
+        <v>317488</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9870910056070585</v>
+        <v>0.987091005607059</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.969504574631478</v>
+        <v>0.9676459797147025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9957014633705138</v>
+        <v>0.995744005987572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>532</v>
@@ -7411,19 +7411,19 @@
         <v>312897</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309742</v>
+        <v>309494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315040</v>
+        <v>314731</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.989990517471952</v>
+        <v>0.9899905174719521</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.980008071162827</v>
+        <v>0.9792237278235406</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9967681643516313</v>
+        <v>0.9957913744280066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>858</v>
@@ -7432,19 +7432,19 @@
         <v>627626</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>621387</v>
+        <v>621417</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>631032</v>
+        <v>631252</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9885344030453096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9787078374780607</v>
+        <v>0.9787537705095941</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9938987320320728</v>
+        <v>0.9942449176171668</v>
       </c>
     </row>
     <row r="6">
@@ -7536,19 +7536,19 @@
         <v>22238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13055</v>
+        <v>13672</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35108</v>
+        <v>33173</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04198611896763397</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02464839802435645</v>
+        <v>0.02581204717530362</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06628504229167696</v>
+        <v>0.06263124585765716</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -7557,19 +7557,19 @@
         <v>40665</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30506</v>
+        <v>31404</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52331</v>
+        <v>52640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07441053250240125</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05582177972283917</v>
+        <v>0.05746534159554537</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09575705733659372</v>
+        <v>0.09632314354108416</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -7578,19 +7578,19 @@
         <v>62903</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49479</v>
+        <v>48060</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81042</v>
+        <v>79122</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05845197035215614</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0459780014149236</v>
+        <v>0.04465879579386717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07530679308655</v>
+        <v>0.07352298627797654</v>
       </c>
     </row>
     <row r="8">
@@ -7607,19 +7607,19 @@
         <v>507420</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494550</v>
+        <v>496485</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>516603</v>
+        <v>515986</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9580138810323662</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9337149577083232</v>
+        <v>0.9373687541423424</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9753516019756437</v>
+        <v>0.9741879528246962</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>660</v>
@@ -7628,19 +7628,19 @@
         <v>505829</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>494163</v>
+        <v>493854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515988</v>
+        <v>515090</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9255894674975987</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9042429426634061</v>
+        <v>0.9036768564589158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9441782202771609</v>
+        <v>0.9425346584044547</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1023</v>
@@ -7649,19 +7649,19 @@
         <v>1013249</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>995110</v>
+        <v>997030</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1026673</v>
+        <v>1028092</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.941548029647844</v>
+        <v>0.9415480296478439</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9246932069134495</v>
+        <v>0.9264770137220234</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9540219985850764</v>
+        <v>0.9553412042061329</v>
       </c>
     </row>
     <row r="9">
@@ -7753,19 +7753,19 @@
         <v>23149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16233</v>
+        <v>16009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32400</v>
+        <v>32450</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07347644138557452</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05152425961039753</v>
+        <v>0.05081374592224776</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1028388143939086</v>
+        <v>0.1029970959113776</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -7774,19 +7774,19 @@
         <v>38670</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30597</v>
+        <v>30066</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48514</v>
+        <v>47504</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1085066271094834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08585533884140173</v>
+        <v>0.08436599952079393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1361306401747376</v>
+        <v>0.133296502991735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -7795,19 +7795,19 @@
         <v>61819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51284</v>
+        <v>50859</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76627</v>
+        <v>74668</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09206945626632032</v>
+        <v>0.09206945626632033</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07637930036263017</v>
+        <v>0.07574609915810147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1141238510421194</v>
+        <v>0.1112058042548446</v>
       </c>
     </row>
     <row r="11">
@@ -7824,19 +7824,19 @@
         <v>291910</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282659</v>
+        <v>282609</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298826</v>
+        <v>299050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9265235586144254</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8971611856060907</v>
+        <v>0.8970029040886225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9484757403896025</v>
+        <v>0.9491862540777524</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>467</v>
@@ -7845,19 +7845,19 @@
         <v>317711</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>307867</v>
+        <v>308877</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325784</v>
+        <v>326315</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8914933728905166</v>
+        <v>0.8914933728905164</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8638693598252619</v>
+        <v>0.8667034970082647</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9141446611585979</v>
+        <v>0.9156340004792061</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>794</v>
@@ -7866,19 +7866,19 @@
         <v>609622</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>594814</v>
+        <v>596773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>620157</v>
+        <v>620582</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9079305437336798</v>
+        <v>0.9079305437336795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8858761489578811</v>
+        <v>0.8887941957451553</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.92362069963737</v>
+        <v>0.9242539008418985</v>
       </c>
     </row>
     <row r="12">
@@ -7970,19 +7970,19 @@
         <v>20884</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13011</v>
+        <v>13059</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33270</v>
+        <v>34637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05596778979254183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03486810020322107</v>
+        <v>0.03499791983870441</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08915992472388719</v>
+        <v>0.09282366993015999</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -7991,19 +7991,19 @@
         <v>28455</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20929</v>
+        <v>20837</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36328</v>
+        <v>37503</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06802906030969287</v>
+        <v>0.06802906030969286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05003740062024863</v>
+        <v>0.04981598946939628</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08685385056989582</v>
+        <v>0.08966204571422781</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -8012,19 +8012,19 @@
         <v>49339</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38146</v>
+        <v>37845</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63520</v>
+        <v>62730</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06234228564565772</v>
+        <v>0.06234228564565771</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04819979466369002</v>
+        <v>0.04781883368474278</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08026118025989915</v>
+        <v>0.07926251439242832</v>
       </c>
     </row>
     <row r="14">
@@ -8041,19 +8041,19 @@
         <v>352261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339875</v>
+        <v>338508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360134</v>
+        <v>360086</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9440322102074582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9108400752761127</v>
+        <v>0.9071763300698399</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9651318997967788</v>
+        <v>0.9650020801612954</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>539</v>
@@ -8062,19 +8062,19 @@
         <v>389816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>381943</v>
+        <v>380768</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397342</v>
+        <v>397434</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9319709396903072</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9131461494301043</v>
+        <v>0.9103379542857724</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9499625993797515</v>
+        <v>0.9501840105306038</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>810</v>
@@ -8083,19 +8083,19 @@
         <v>742077</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>727896</v>
+        <v>728686</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753270</v>
+        <v>753571</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9376577143543424</v>
+        <v>0.9376577143543423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9197388197401014</v>
+        <v>0.9207374856075716</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.95180020533631</v>
+        <v>0.9521811663152573</v>
       </c>
     </row>
     <row r="15">
@@ -8187,19 +8187,19 @@
         <v>8083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4773</v>
+        <v>4748</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12820</v>
+        <v>13117</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03930259648532471</v>
+        <v>0.0393025964853247</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0232084729866716</v>
+        <v>0.02308608748092061</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06233342300496753</v>
+        <v>0.06378054873241311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -8208,19 +8208,19 @@
         <v>10765</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7074</v>
+        <v>7338</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15713</v>
+        <v>15828</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04746731285605021</v>
+        <v>0.04746731285605019</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03119494651772423</v>
+        <v>0.03235797431162225</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06928431990539884</v>
+        <v>0.06979499643942529</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -8229,19 +8229,19 @@
         <v>18848</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13804</v>
+        <v>14036</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26297</v>
+        <v>26016</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04358431338117671</v>
+        <v>0.0435843133811767</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03192140809904263</v>
+        <v>0.03245705185243875</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06080853688583334</v>
+        <v>0.0601599215336265</v>
       </c>
     </row>
     <row r="17">
@@ -8258,19 +8258,19 @@
         <v>197582</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192845</v>
+        <v>192548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200892</v>
+        <v>200917</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9606974035146754</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9376665769950325</v>
+        <v>0.936219451267587</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9767915270133286</v>
+        <v>0.9769139125190794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>465</v>
@@ -8279,19 +8279,19 @@
         <v>216018</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211070</v>
+        <v>210955</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>219709</v>
+        <v>219445</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.95253268714395</v>
+        <v>0.9525326871439497</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9307156800946013</v>
+        <v>0.9302050035605749</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9688050534822759</v>
+        <v>0.9676420256883779</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>729</v>
@@ -8300,19 +8300,19 @@
         <v>413600</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>406151</v>
+        <v>406432</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>418644</v>
+        <v>418412</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9564156866188235</v>
+        <v>0.9564156866188234</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9391914631141668</v>
+        <v>0.939840078466373</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9680785919009574</v>
+        <v>0.9675429481475611</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>14380</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9541</v>
+        <v>9362</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20338</v>
+        <v>20465</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05312179732874429</v>
+        <v>0.0531217973287443</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03524505453059266</v>
+        <v>0.03458384033384111</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07513080608230119</v>
+        <v>0.07559872875423099</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -8425,19 +8425,19 @@
         <v>23102</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17440</v>
+        <v>17596</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29941</v>
+        <v>29460</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08759216425048755</v>
+        <v>0.08759216425048751</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06612303220454924</v>
+        <v>0.06671384746705476</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1135211198407646</v>
+        <v>0.1116951647225608</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -8446,19 +8446,19 @@
         <v>37483</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30026</v>
+        <v>29721</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46205</v>
+        <v>46495</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07013264146571788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.056181061062453</v>
+        <v>0.05560981128035674</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08645143796710136</v>
+        <v>0.0869955802957614</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>256327</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250369</v>
+        <v>250242</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261166</v>
+        <v>261345</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9468782026712557</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9248691939176983</v>
+        <v>0.9244012712457689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9647549454694072</v>
+        <v>0.9654161596661588</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>402</v>
@@ -8496,19 +8496,19 @@
         <v>240648</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>233809</v>
+        <v>234290</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246310</v>
+        <v>246154</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9124078357495125</v>
+        <v>0.9124078357495122</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8864788801592355</v>
+        <v>0.8883048352774391</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9338769677954509</v>
+        <v>0.9332861525329451</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>744</v>
@@ -8517,19 +8517,19 @@
         <v>496974</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>488252</v>
+        <v>487962</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>504431</v>
+        <v>504736</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.929867358534282</v>
+        <v>0.9298673585342822</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9135485620328984</v>
+        <v>0.9130044197042388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9438189389375472</v>
+        <v>0.9443901887196432</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>51349</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37033</v>
+        <v>36747</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68872</v>
+        <v>67810</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0714566884254652</v>
+        <v>0.07145668842546521</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05153470485611353</v>
+        <v>0.05113727145710432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09584095207717179</v>
+        <v>0.09436401679260735</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -8642,19 +8642,19 @@
         <v>72435</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59412</v>
+        <v>58455</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86759</v>
+        <v>87010</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0938207134708732</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07695249005022749</v>
+        <v>0.07571352317183512</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1123743743331865</v>
+        <v>0.1126993080693707</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -8663,19 +8663,19 @@
         <v>123784</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104660</v>
+        <v>105850</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>145830</v>
+        <v>147895</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08303966089398751</v>
+        <v>0.08303966089398754</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07021064706927287</v>
+        <v>0.07100896103890543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09782897299252137</v>
+        <v>0.09921419416293373</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>667256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>649733</v>
+        <v>650795</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>681572</v>
+        <v>681858</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9285433115745347</v>
+        <v>0.9285433115745348</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9041590479228283</v>
+        <v>0.9056359832073928</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9484652951438863</v>
+        <v>0.9488627285428958</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>858</v>
@@ -8713,19 +8713,19 @@
         <v>699622</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>685298</v>
+        <v>685047</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>712645</v>
+        <v>713602</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9061792865291266</v>
+        <v>0.9061792865291267</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8876256256668134</v>
+        <v>0.8873006919306295</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9230475099497725</v>
+        <v>0.924286476828165</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1411</v>
@@ -8734,19 +8734,19 @@
         <v>1366878</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1344832</v>
+        <v>1342767</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1386002</v>
+        <v>1384812</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9169603391060125</v>
+        <v>0.9169603391060126</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9021710270074785</v>
+        <v>0.9007858058370658</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9297893529307272</v>
+        <v>0.9289910389610943</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>40251</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27837</v>
+        <v>30042</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51769</v>
+        <v>54116</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05047748063384458</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03490991694160012</v>
+        <v>0.03767507645625335</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06492229430618343</v>
+        <v>0.06786512234409818</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>91</v>
@@ -8859,19 +8859,19 @@
         <v>60895</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49777</v>
+        <v>48802</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74621</v>
+        <v>73793</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07331848359456805</v>
+        <v>0.07331848359456807</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05993193844082506</v>
+        <v>0.058758178540061</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08984577277370537</v>
+        <v>0.08884778742715757</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>135</v>
@@ -8880,19 +8880,19 @@
         <v>101146</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>85388</v>
+        <v>84598</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>118158</v>
+        <v>118403</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06213051040076702</v>
+        <v>0.06213051040076704</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05245108967105465</v>
+        <v>0.05196567293592529</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07258070570644033</v>
+        <v>0.07273133431866489</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>757153</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>745635</v>
+        <v>743288</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>769567</v>
+        <v>767362</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9495225193661555</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9350777056938167</v>
+        <v>0.9321348776559018</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9650900830583998</v>
+        <v>0.9623249235437467</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>970</v>
@@ -8930,19 +8930,19 @@
         <v>769656</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>755930</v>
+        <v>756758</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>780774</v>
+        <v>781749</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9266815164054318</v>
+        <v>0.9266815164054319</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9101542272262946</v>
+        <v>0.9111522125728424</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9400680615591749</v>
+        <v>0.941241821459939</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1687</v>
@@ -8951,19 +8951,19 @@
         <v>1526809</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1509797</v>
+        <v>1509552</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1542567</v>
+        <v>1543357</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.937869489599233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9274192942935596</v>
+        <v>0.9272686656813353</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9475489103289453</v>
+        <v>0.9480343270640749</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>184452</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>157441</v>
+        <v>157665</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>211521</v>
+        <v>209870</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05226604053810154</v>
+        <v>0.05226604053810156</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04461243528177447</v>
+        <v>0.04467593241360743</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0599363896528598</v>
+        <v>0.05946872845355478</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>462</v>
@@ -9076,19 +9076,19 @@
         <v>278150</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>254984</v>
+        <v>253939</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>304431</v>
+        <v>304654</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07456401324854876</v>
+        <v>0.07456401324854875</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06835394631472304</v>
+        <v>0.06807368604966044</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0816093578715457</v>
+        <v>0.08166893341517864</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>671</v>
@@ -9097,19 +9097,19 @@
         <v>462601</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>425735</v>
+        <v>426285</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>502262</v>
+        <v>500697</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.06372411909316227</v>
+        <v>0.06372411909316228</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05864573854842128</v>
+        <v>0.05872153202197104</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06918739231743393</v>
+        <v>0.0689718720151057</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>3344637</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3317568</v>
+        <v>3319219</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3371648</v>
+        <v>3371424</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9477339594618984</v>
+        <v>0.9477339594618983</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9400636103471403</v>
+        <v>0.9405312715464453</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9553875647182255</v>
+        <v>0.9553240675863925</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4893</v>
@@ -9147,19 +9147,19 @@
         <v>3452198</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3425917</v>
+        <v>3425694</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3475364</v>
+        <v>3476409</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9254359867514512</v>
+        <v>0.9254359867514511</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9183906421284542</v>
+        <v>0.9183310665848214</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.931646053685277</v>
+        <v>0.9319263139503395</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8056</v>
@@ -9168,19 +9168,19 @@
         <v>6796837</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6757176</v>
+        <v>6758741</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6833703</v>
+        <v>6833153</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9362758809068378</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9308126076825658</v>
+        <v>0.9310281279848942</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9413542614515789</v>
+        <v>0.9412784679780288</v>
       </c>
     </row>
     <row r="30">
